--- a/results/datasetNearZero_polytree5.xlsx
+++ b/results/datasetNearZero_polytree5.xlsx
@@ -466,13 +466,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1339999999999991</v>
+        <v>0.1569999999999988</v>
       </c>
       <c r="E2" t="n">
-        <v>0.866000000000001</v>
+        <v>0.8430000000000013</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04691290855407715</v>
+        <v>0.05008220672607422</v>
       </c>
     </row>
     <row r="3">
@@ -488,13 +488,13 @@
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.138999999999999</v>
+        <v>0.1259999999999991</v>
       </c>
       <c r="E3" t="n">
-        <v>0.861000000000001</v>
+        <v>0.8740000000000009</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06248259544372559</v>
+        <v>0.0609593391418457</v>
       </c>
     </row>
     <row r="4">
@@ -510,13 +510,13 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1139999999999992</v>
+        <v>0.1329999999999991</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8860000000000008</v>
+        <v>0.867000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04686474800109863</v>
+        <v>0.04686379432678223</v>
       </c>
     </row>
     <row r="5">
@@ -532,13 +532,13 @@
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1549999999999988</v>
+        <v>0.1229999999999991</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8450000000000012</v>
+        <v>0.8770000000000009</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04684758186340332</v>
+        <v>0.05345535278320312</v>
       </c>
     </row>
     <row r="6">
@@ -554,13 +554,13 @@
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.137999999999999</v>
+        <v>0.1189999999999991</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8620000000000009</v>
+        <v>0.8810000000000009</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06250929832458496</v>
+        <v>0.05341219902038574</v>
       </c>
     </row>
     <row r="7">
@@ -576,13 +576,13 @@
         <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1189999999999991</v>
+        <v>0.1149999999999992</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8810000000000009</v>
+        <v>0.8850000000000008</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04685354232788086</v>
+        <v>0.06253600120544434</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1099999999999992</v>
+        <v>0.1279999999999991</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8900000000000008</v>
+        <v>0.8720000000000009</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06248378753662109</v>
+        <v>0.05345368385314941</v>
       </c>
     </row>
     <row r="9">
@@ -620,13 +620,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1249999999999991</v>
+        <v>0.1269999999999991</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8750000000000009</v>
+        <v>0.8730000000000009</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04686307907104492</v>
+        <v>0.04686284065246582</v>
       </c>
     </row>
     <row r="10">
@@ -642,13 +642,13 @@
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1249999999999991</v>
+        <v>0.1309999999999991</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8750000000000009</v>
+        <v>0.8690000000000009</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06249094009399414</v>
+        <v>0.06816506385803223</v>
       </c>
     </row>
     <row r="11">
@@ -664,13 +664,13 @@
         <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1289999999999991</v>
+        <v>0.136999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8710000000000009</v>
+        <v>0.8630000000000009</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04685878753662109</v>
+        <v>0.05258536338806152</v>
       </c>
     </row>
     <row r="12">
@@ -686,13 +686,13 @@
         <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1339999999999991</v>
+        <v>0.1129999999999992</v>
       </c>
       <c r="E12" t="n">
-        <v>0.866000000000001</v>
+        <v>0.8870000000000008</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06248688697814941</v>
+        <v>0.05175304412841797</v>
       </c>
     </row>
     <row r="13">
@@ -708,13 +708,13 @@
         <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1249999999999991</v>
+        <v>0.1189999999999991</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8750000000000009</v>
+        <v>0.8810000000000009</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0468599796295166</v>
+        <v>0.0601503849029541</v>
       </c>
     </row>
     <row r="14">
@@ -730,13 +730,13 @@
         <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>0.143999999999999</v>
+        <v>0.1109999999999992</v>
       </c>
       <c r="E14" t="n">
-        <v>0.856000000000001</v>
+        <v>0.8890000000000008</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06248712539672852</v>
+        <v>0.05050539970397949</v>
       </c>
     </row>
     <row r="15">
@@ -752,13 +752,13 @@
         <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1319999999999991</v>
+        <v>0.1189999999999991</v>
       </c>
       <c r="E15" t="n">
-        <v>0.868000000000001</v>
+        <v>0.8810000000000009</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04683804512023926</v>
+        <v>0.06075549125671387</v>
       </c>
     </row>
     <row r="16">
@@ -774,13 +774,13 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1289999999999991</v>
+        <v>0.1199999999999991</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8710000000000009</v>
+        <v>0.8800000000000009</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06251645088195801</v>
+        <v>0.05056571960449219</v>
       </c>
     </row>
     <row r="17">
@@ -796,13 +796,13 @@
         <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1209999999999991</v>
+        <v>0.1199999999999991</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8790000000000009</v>
+        <v>0.8800000000000009</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04955005645751953</v>
+        <v>0.06072282791137695</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1249999999999991</v>
+        <v>0.1149999999999992</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8750000000000009</v>
+        <v>0.8850000000000008</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06248188018798828</v>
+        <v>0.05048656463623047</v>
       </c>
     </row>
     <row r="19">
@@ -840,13 +840,13 @@
         <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1259999999999991</v>
+        <v>0.1139999999999992</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8740000000000009</v>
+        <v>0.8860000000000008</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04687142372131348</v>
+        <v>0.05858063697814941</v>
       </c>
     </row>
     <row r="20">
@@ -862,13 +862,13 @@
         <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1079999999999992</v>
+        <v>0.1169999999999991</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8920000000000008</v>
+        <v>0.8830000000000009</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04687023162841797</v>
+        <v>0.06060957908630371</v>
       </c>
     </row>
     <row r="21">
@@ -884,13 +884,13 @@
         <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>0.141999999999999</v>
+        <v>0.1179999999999991</v>
       </c>
       <c r="E21" t="n">
-        <v>0.858000000000001</v>
+        <v>0.8820000000000009</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06247401237487793</v>
+        <v>0.05415940284729004</v>
       </c>
     </row>
     <row r="22">
@@ -906,13 +906,13 @@
         <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1279999999999991</v>
+        <v>0.1239999999999991</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8720000000000009</v>
+        <v>0.8760000000000009</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04686355590820312</v>
+        <v>0.04968428611755371</v>
       </c>
     </row>
     <row r="23">
@@ -928,13 +928,13 @@
         <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1209999999999991</v>
+        <v>0.1219999999999991</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8790000000000009</v>
+        <v>0.8780000000000008</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07806515693664551</v>
+        <v>0.0607147216796875</v>
       </c>
     </row>
     <row r="24">
@@ -950,13 +950,13 @@
         <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1039999999999992</v>
+        <v>0.1139999999999992</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8960000000000008</v>
+        <v>0.8860000000000008</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07830381393432617</v>
+        <v>0.08052325248718262</v>
       </c>
     </row>
     <row r="25">
@@ -972,13 +972,13 @@
         <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1309999999999991</v>
+        <v>0.1289999999999991</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8690000000000009</v>
+        <v>0.8710000000000009</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04727363586425781</v>
+        <v>0.06963443756103516</v>
       </c>
     </row>
     <row r="26">
@@ -994,13 +994,13 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1129999999999992</v>
+        <v>0.1019999999999992</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8870000000000008</v>
+        <v>0.8980000000000008</v>
       </c>
       <c r="F26" t="n">
-        <v>0.06337714195251465</v>
+        <v>0.04689455032348633</v>
       </c>
     </row>
     <row r="27">
@@ -1016,13 +1016,13 @@
         <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01352486477576665</v>
+        <v>0.01562066915793093</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9864751352242334</v>
+        <v>0.984379330842069</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05590915679931641</v>
+        <v>0.07345676422119141</v>
       </c>
     </row>
     <row r="28">
@@ -1038,13 +1038,13 @@
         <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01503052055068857</v>
+        <v>0.01409911869919054</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9849694794493115</v>
+        <v>0.9859008813008094</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04944777488708496</v>
+        <v>0.04789185523986816</v>
       </c>
     </row>
     <row r="29">
@@ -1066,7 +1066,7 @@
         <v>0.9854371364691116</v>
       </c>
       <c r="F29" t="n">
-        <v>0.046905517578125</v>
+        <v>0.06617164611816406</v>
       </c>
     </row>
     <row r="30">
@@ -1082,13 +1082,13 @@
         <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01306974485951083</v>
+        <v>0.01538386056401901</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9869302551404892</v>
+        <v>0.9846161394359809</v>
       </c>
       <c r="F30" t="n">
-        <v>0.07075929641723633</v>
+        <v>0.05050992965698242</v>
       </c>
     </row>
     <row r="31">
@@ -1104,13 +1104,13 @@
         <v>25</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01503052055068857</v>
+        <v>0.01306974485951083</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9849694794493115</v>
+        <v>0.9869302551404892</v>
       </c>
       <c r="F31" t="n">
-        <v>0.04800677299499512</v>
+        <v>0.0625607967376709</v>
       </c>
     </row>
     <row r="32">
@@ -1126,13 +1126,13 @@
         <v>25</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01363923716892005</v>
+        <v>0.01421469082696327</v>
       </c>
       <c r="E32" t="n">
-        <v>0.98636076283108</v>
+        <v>0.9857853091730368</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04686331748962402</v>
+        <v>0.05295133590698242</v>
       </c>
     </row>
     <row r="33">
@@ -1148,13 +1148,13 @@
         <v>25</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01514805189255517</v>
+        <v>0.01491323682363514</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9848519481074448</v>
+        <v>0.9850867631763649</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06900954246520996</v>
+        <v>0.04686903953552246</v>
       </c>
     </row>
     <row r="34">
@@ -1170,13 +1170,13 @@
         <v>25</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01503052055068857</v>
+        <v>0.01295655361611792</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9849694794493115</v>
+        <v>0.987043446383882</v>
       </c>
       <c r="F34" t="n">
-        <v>0.04966831207275391</v>
+        <v>0.07004690170288086</v>
       </c>
     </row>
     <row r="35">
@@ -1192,13 +1192,13 @@
         <v>25</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01363923716892005</v>
+        <v>0.01398378802379665</v>
       </c>
       <c r="E35" t="n">
-        <v>0.98636076283108</v>
+        <v>0.9860162119762034</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04686856269836426</v>
+        <v>0.05192923545837402</v>
       </c>
     </row>
     <row r="36">
@@ -1214,13 +1214,13 @@
         <v>25</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01491323682363514</v>
+        <v>0.01284359640627375</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9850867631763649</v>
+        <v>0.9871564035937263</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06248044967651367</v>
+        <v>0.04690837860107422</v>
       </c>
     </row>
     <row r="37">
@@ -1236,13 +1236,13 @@
         <v>25</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01585848404790691</v>
+        <v>0.0175519114983289</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9841415159520932</v>
+        <v>0.9824480885016711</v>
       </c>
       <c r="F37" t="n">
-        <v>0.04686903953552246</v>
+        <v>0.06907963752746582</v>
       </c>
     </row>
     <row r="38">
@@ -1258,13 +1258,13 @@
         <v>25</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01295655361611792</v>
+        <v>0.01456286353088841</v>
       </c>
       <c r="E38" t="n">
-        <v>0.987043446383882</v>
+        <v>0.9854371364691116</v>
       </c>
       <c r="F38" t="n">
-        <v>0.06244206428527832</v>
+        <v>0.04686498641967773</v>
       </c>
     </row>
     <row r="39">
@@ -1280,13 +1280,13 @@
         <v>25</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01352486477576665</v>
+        <v>0.01398378802379665</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9864751352242334</v>
+        <v>0.9860162119762034</v>
       </c>
       <c r="F39" t="n">
-        <v>0.04686212539672852</v>
+        <v>0.06008625030517578</v>
       </c>
     </row>
     <row r="40">
@@ -1302,13 +1302,13 @@
         <v>25</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01456286353088841</v>
+        <v>0.0164574661363752</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9854371364691116</v>
+        <v>0.9835425338636248</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0624852180480957</v>
+        <v>0.04925131797790527</v>
       </c>
     </row>
     <row r="41">
@@ -1330,7 +1330,7 @@
         <v>0.9853205909094983</v>
       </c>
       <c r="F41" t="n">
-        <v>0.04686403274536133</v>
+        <v>0.06059002876281738</v>
       </c>
     </row>
     <row r="42">
@@ -1346,13 +1346,13 @@
         <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01318317086454013</v>
+        <v>0.01421469082696327</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9868168291354599</v>
+        <v>0.9857853091730368</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0624852180480957</v>
+        <v>0.05252695083618164</v>
       </c>
     </row>
     <row r="43">
@@ -1368,13 +1368,13 @@
         <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01284359640627375</v>
+        <v>0.01386869804491059</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9871564035937263</v>
+        <v>0.9861313019550895</v>
       </c>
       <c r="F43" t="n">
-        <v>0.04686403274536133</v>
+        <v>0.0505063533782959</v>
       </c>
     </row>
     <row r="44">
@@ -1390,13 +1390,13 @@
         <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01228229558688624</v>
+        <v>0.01409911869919054</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9877177044131138</v>
+        <v>0.9859008813008094</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0624854564666748</v>
+        <v>0.05865669250488281</v>
       </c>
     </row>
     <row r="45">
@@ -1412,13 +1412,13 @@
         <v>25</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01352486477576665</v>
+        <v>0.01467940909050171</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9864751352242334</v>
+        <v>0.9853205909094983</v>
       </c>
       <c r="F45" t="n">
-        <v>0.06248712539672852</v>
+        <v>0.05259847640991211</v>
       </c>
     </row>
     <row r="46">
@@ -1434,13 +1434,13 @@
         <v>25</v>
       </c>
       <c r="D46" t="n">
-        <v>0.01306974485951083</v>
+        <v>0.01084957403629889</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9869302551404892</v>
+        <v>0.9891504259637012</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07810616493225098</v>
+        <v>0.05869483947753906</v>
       </c>
     </row>
     <row r="47">
@@ -1456,13 +1456,13 @@
         <v>25</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01161630805903476</v>
+        <v>0.01363923716892005</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9883836919409653</v>
+        <v>0.98636076283108</v>
       </c>
       <c r="F47" t="n">
-        <v>0.04686284065246582</v>
+        <v>0.05262017250061035</v>
       </c>
     </row>
     <row r="48">
@@ -1478,13 +1478,13 @@
         <v>25</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01194827755016212</v>
+        <v>0.01444656247898727</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9880517224498379</v>
+        <v>0.9855534375210128</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06252956390380859</v>
+        <v>0.05856490135192871</v>
       </c>
     </row>
     <row r="49">
@@ -1500,13 +1500,13 @@
         <v>25</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01491323682363514</v>
+        <v>0.01363923716892005</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9850867631763649</v>
+        <v>0.98636076283108</v>
       </c>
       <c r="F49" t="n">
-        <v>0.04686307907104492</v>
+        <v>0.05347037315368652</v>
       </c>
     </row>
     <row r="50">
@@ -1522,13 +1522,13 @@
         <v>25</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01261838118990375</v>
+        <v>0.01084957403629889</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9873816188100962</v>
+        <v>0.9891504259637012</v>
       </c>
       <c r="F50" t="n">
-        <v>0.06244158744812012</v>
+        <v>0.05074071884155273</v>
       </c>
     </row>
     <row r="51">
@@ -1544,13 +1544,13 @@
         <v>25</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01421469082696327</v>
+        <v>0.01467940909050171</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9857853091730368</v>
+        <v>0.9853205909094983</v>
       </c>
       <c r="F51" t="n">
-        <v>0.04686379432678223</v>
+        <v>0.05859875679016113</v>
       </c>
     </row>
     <row r="52">
@@ -1566,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="D52" t="n">
-        <v>0.315</v>
+        <v>0.41</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1152892112731934</v>
+        <v>0.1073157787322998</v>
       </c>
     </row>
     <row r="53">
@@ -1588,13 +1588,13 @@
         <v>25</v>
       </c>
       <c r="D53" t="n">
-        <v>0.218</v>
+        <v>0.36</v>
       </c>
       <c r="E53" t="n">
-        <v>0.782</v>
+        <v>0.64</v>
       </c>
       <c r="F53" t="n">
-        <v>0.09543323516845703</v>
+        <v>0.09468460083007812</v>
       </c>
     </row>
     <row r="54">
@@ -1610,13 +1610,13 @@
         <v>25</v>
       </c>
       <c r="D54" t="n">
-        <v>0.149</v>
+        <v>0.208</v>
       </c>
       <c r="E54" t="n">
-        <v>0.851</v>
+        <v>0.792</v>
       </c>
       <c r="F54" t="n">
-        <v>0.09368538856506348</v>
+        <v>0.1031970977783203</v>
       </c>
     </row>
     <row r="55">
@@ -1632,13 +1632,13 @@
         <v>25</v>
       </c>
       <c r="D55" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.066</v>
       </c>
       <c r="E55" t="n">
-        <v>0.928</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>0.09372806549072266</v>
+        <v>0.103290319442749</v>
       </c>
     </row>
     <row r="56">
@@ -1654,13 +1654,13 @@
         <v>25</v>
       </c>
       <c r="D56" t="n">
-        <v>0.281</v>
+        <v>0.081</v>
       </c>
       <c r="E56" t="n">
-        <v>0.719</v>
+        <v>0.919</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1093490123748779</v>
+        <v>0.09916210174560547</v>
       </c>
     </row>
     <row r="57">
@@ -1676,13 +1676,13 @@
         <v>25</v>
       </c>
       <c r="D57" t="n">
-        <v>0.115</v>
+        <v>0.255</v>
       </c>
       <c r="E57" t="n">
-        <v>0.885</v>
+        <v>0.745</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09372806549072266</v>
+        <v>0.1009230613708496</v>
       </c>
     </row>
     <row r="58">
@@ -1698,13 +1698,13 @@
         <v>25</v>
       </c>
       <c r="D58" t="n">
-        <v>0.112</v>
+        <v>0.178</v>
       </c>
       <c r="E58" t="n">
-        <v>0.888</v>
+        <v>0.822</v>
       </c>
       <c r="F58" t="n">
-        <v>0.09372854232788086</v>
+        <v>0.09895181655883789</v>
       </c>
     </row>
     <row r="59">
@@ -1720,13 +1720,13 @@
         <v>25</v>
       </c>
       <c r="D59" t="n">
-        <v>0.18</v>
+        <v>0.039</v>
       </c>
       <c r="E59" t="n">
-        <v>0.82</v>
+        <v>0.961</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1093487739562988</v>
+        <v>0.09263277053833008</v>
       </c>
     </row>
     <row r="60">
@@ -1742,13 +1742,13 @@
         <v>25</v>
       </c>
       <c r="D60" t="n">
-        <v>0.05</v>
+        <v>0.247</v>
       </c>
       <c r="E60" t="n">
-        <v>0.95</v>
+        <v>0.753</v>
       </c>
       <c r="F60" t="n">
-        <v>0.09372806549072266</v>
+        <v>0.10113525390625</v>
       </c>
     </row>
     <row r="61">
@@ -1764,13 +1764,13 @@
         <v>25</v>
       </c>
       <c r="D61" t="n">
-        <v>0.016</v>
+        <v>0.146</v>
       </c>
       <c r="E61" t="n">
-        <v>0.984</v>
+        <v>0.854</v>
       </c>
       <c r="F61" t="n">
-        <v>0.09372782707214355</v>
+        <v>0.0915987491607666</v>
       </c>
     </row>
     <row r="62">
@@ -1786,13 +1786,13 @@
         <v>25</v>
       </c>
       <c r="D62" t="n">
-        <v>0.187</v>
+        <v>0.039</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.961</v>
       </c>
       <c r="F62" t="n">
-        <v>0.09377193450927734</v>
+        <v>0.1015236377716064</v>
       </c>
     </row>
     <row r="63">
@@ -1808,13 +1808,13 @@
         <v>25</v>
       </c>
       <c r="D63" t="n">
-        <v>0.082</v>
+        <v>0.124</v>
       </c>
       <c r="E63" t="n">
-        <v>0.918</v>
+        <v>0.876</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1093480587005615</v>
+        <v>0.09093689918518066</v>
       </c>
     </row>
     <row r="64">
@@ -1830,13 +1830,13 @@
         <v>25</v>
       </c>
       <c r="D64" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>0.914</v>
+        <v>0.928</v>
       </c>
       <c r="F64" t="n">
-        <v>0.09368491172790527</v>
+        <v>0.1010968685150146</v>
       </c>
     </row>
     <row r="65">
@@ -1852,13 +1852,13 @@
         <v>25</v>
       </c>
       <c r="D65" t="n">
-        <v>0.092</v>
+        <v>0.154</v>
       </c>
       <c r="E65" t="n">
-        <v>0.908</v>
+        <v>0.846</v>
       </c>
       <c r="F65" t="n">
-        <v>0.09372806549072266</v>
+        <v>0.1011285781860352</v>
       </c>
     </row>
     <row r="66">
@@ -1874,13 +1874,13 @@
         <v>25</v>
       </c>
       <c r="D66" t="n">
-        <v>0.054</v>
+        <v>0.007</v>
       </c>
       <c r="E66" t="n">
-        <v>0.946</v>
+        <v>0.993</v>
       </c>
       <c r="F66" t="n">
-        <v>0.109349250793457</v>
+        <v>0.0988767147064209</v>
       </c>
     </row>
     <row r="67">
@@ -1896,13 +1896,13 @@
         <v>25</v>
       </c>
       <c r="D67" t="n">
-        <v>0.293</v>
+        <v>0.327</v>
       </c>
       <c r="E67" t="n">
-        <v>0.707</v>
+        <v>0.673</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09372782707214355</v>
+        <v>0.0928199291229248</v>
       </c>
     </row>
     <row r="68">
@@ -1918,13 +1918,13 @@
         <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>0.271</v>
+        <v>0.177</v>
       </c>
       <c r="E68" t="n">
-        <v>0.729</v>
+        <v>0.823</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09372854232788086</v>
+        <v>0.1010429859161377</v>
       </c>
     </row>
     <row r="69">
@@ -1940,13 +1940,13 @@
         <v>25</v>
       </c>
       <c r="D69" t="n">
-        <v>0.308</v>
+        <v>0.02</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F69" t="n">
-        <v>0.09372806549072266</v>
+        <v>0.1007437705993652</v>
       </c>
     </row>
     <row r="70">
@@ -1962,13 +1962,13 @@
         <v>25</v>
       </c>
       <c r="D70" t="n">
-        <v>0.243</v>
+        <v>0.136</v>
       </c>
       <c r="E70" t="n">
-        <v>0.757</v>
+        <v>0.864</v>
       </c>
       <c r="F70" t="n">
-        <v>0.106090784072876</v>
+        <v>0.1005501747131348</v>
       </c>
     </row>
     <row r="71">
@@ -1984,13 +1984,13 @@
         <v>25</v>
       </c>
       <c r="D71" t="n">
-        <v>0.198</v>
+        <v>0.166</v>
       </c>
       <c r="E71" t="n">
-        <v>0.802</v>
+        <v>0.834</v>
       </c>
       <c r="F71" t="n">
-        <v>0.09373283386230469</v>
+        <v>0.1008758544921875</v>
       </c>
     </row>
     <row r="72">
@@ -2006,13 +2006,13 @@
         <v>25</v>
       </c>
       <c r="D72" t="n">
-        <v>0.241</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>0.759</v>
+        <v>0.915</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09368348121643066</v>
+        <v>0.1011478900909424</v>
       </c>
     </row>
     <row r="73">
@@ -2028,13 +2028,13 @@
         <v>25</v>
       </c>
       <c r="D73" t="n">
-        <v>0.378</v>
+        <v>0.349</v>
       </c>
       <c r="E73" t="n">
-        <v>0.622</v>
+        <v>0.651</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1093945503234863</v>
+        <v>0.1010942459106445</v>
       </c>
     </row>
     <row r="74">
@@ -2050,13 +2050,13 @@
         <v>25</v>
       </c>
       <c r="D74" t="n">
-        <v>0.237</v>
+        <v>0.243</v>
       </c>
       <c r="E74" t="n">
-        <v>0.763</v>
+        <v>0.757</v>
       </c>
       <c r="F74" t="n">
-        <v>0.09368252754211426</v>
+        <v>0.09099054336547852</v>
       </c>
     </row>
     <row r="75">
@@ -2072,13 +2072,13 @@
         <v>25</v>
       </c>
       <c r="D75" t="n">
-        <v>0.347</v>
+        <v>0.372</v>
       </c>
       <c r="E75" t="n">
-        <v>0.653</v>
+        <v>0.628</v>
       </c>
       <c r="F75" t="n">
-        <v>0.09372806549072266</v>
+        <v>0.1012256145477295</v>
       </c>
     </row>
     <row r="76">
@@ -2094,13 +2094,13 @@
         <v>25</v>
       </c>
       <c r="D76" t="n">
-        <v>0.119</v>
+        <v>0.162</v>
       </c>
       <c r="E76" t="n">
-        <v>0.881</v>
+        <v>0.838</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09372782707214355</v>
+        <v>0.1010921001434326</v>
       </c>
     </row>
     <row r="77">
@@ -2116,13 +2116,13 @@
         <v>25</v>
       </c>
       <c r="D77" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="E77" t="n">
-        <v>0.976</v>
+        <v>0.975</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1093494892120361</v>
+        <v>0.102229118347168</v>
       </c>
     </row>
     <row r="78">
@@ -2138,13 +2138,13 @@
         <v>25</v>
       </c>
       <c r="D78" t="n">
-        <v>0.019</v>
+        <v>0.016</v>
       </c>
       <c r="E78" t="n">
-        <v>0.981</v>
+        <v>0.984</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1093490123748779</v>
+        <v>0.1113190650939941</v>
       </c>
     </row>
     <row r="79">
@@ -2160,13 +2160,13 @@
         <v>25</v>
       </c>
       <c r="D79" t="n">
-        <v>0.007</v>
+        <v>0.013</v>
       </c>
       <c r="E79" t="n">
-        <v>0.993</v>
+        <v>0.987</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1093494892120361</v>
+        <v>0.1012179851531982</v>
       </c>
     </row>
     <row r="80">
@@ -2182,13 +2182,13 @@
         <v>25</v>
       </c>
       <c r="D80" t="n">
-        <v>0.036</v>
+        <v>0.024</v>
       </c>
       <c r="E80" t="n">
-        <v>0.964</v>
+        <v>0.976</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09372782707214355</v>
+        <v>0.109189510345459</v>
       </c>
     </row>
     <row r="81">
@@ -2204,13 +2204,13 @@
         <v>25</v>
       </c>
       <c r="D81" t="n">
-        <v>0.023</v>
+        <v>0.017</v>
       </c>
       <c r="E81" t="n">
-        <v>0.977</v>
+        <v>0.983</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1093497276306152</v>
+        <v>0.1031937599182129</v>
       </c>
     </row>
     <row r="82">
@@ -2226,13 +2226,13 @@
         <v>25</v>
       </c>
       <c r="D82" t="n">
-        <v>0.018</v>
+        <v>0.005</v>
       </c>
       <c r="E82" t="n">
-        <v>0.982</v>
+        <v>0.995</v>
       </c>
       <c r="F82" t="n">
-        <v>0.09376955032348633</v>
+        <v>0.1020114421844482</v>
       </c>
     </row>
     <row r="83">
@@ -2248,13 +2248,13 @@
         <v>25</v>
       </c>
       <c r="D83" t="n">
-        <v>0.007</v>
+        <v>0.021</v>
       </c>
       <c r="E83" t="n">
-        <v>0.993</v>
+        <v>0.979</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1093070507049561</v>
+        <v>0.1010100841522217</v>
       </c>
     </row>
     <row r="84">
@@ -2270,13 +2270,13 @@
         <v>25</v>
       </c>
       <c r="D84" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="E84" t="n">
-        <v>0.989</v>
+        <v>0.99</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09372806549072266</v>
+        <v>0.1011877059936523</v>
       </c>
     </row>
     <row r="85">
@@ -2292,13 +2292,13 @@
         <v>25</v>
       </c>
       <c r="D85" t="n">
-        <v>0.011</v>
+        <v>0.035</v>
       </c>
       <c r="E85" t="n">
-        <v>0.989</v>
+        <v>0.965</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1093490123748779</v>
+        <v>0.101294994354248</v>
       </c>
     </row>
     <row r="86">
@@ -2314,13 +2314,13 @@
         <v>25</v>
       </c>
       <c r="D86" t="n">
-        <v>0.01</v>
+        <v>0.018</v>
       </c>
       <c r="E86" t="n">
-        <v>0.99</v>
+        <v>0.982</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1249721050262451</v>
+        <v>0.1011753082275391</v>
       </c>
     </row>
     <row r="87">
@@ -2336,13 +2336,13 @@
         <v>25</v>
       </c>
       <c r="D87" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E87" t="n">
-        <v>0.993</v>
+        <v>0.994</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1093482971191406</v>
+        <v>0.109722375869751</v>
       </c>
     </row>
     <row r="88">
@@ -2358,13 +2358,13 @@
         <v>25</v>
       </c>
       <c r="D88" t="n">
-        <v>0.017</v>
+        <v>0.005</v>
       </c>
       <c r="E88" t="n">
-        <v>0.983</v>
+        <v>0.995</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1041531562805176</v>
+        <v>0.1032116413116455</v>
       </c>
     </row>
     <row r="89">
@@ -2380,13 +2380,13 @@
         <v>25</v>
       </c>
       <c r="D89" t="n">
-        <v>0.029</v>
+        <v>0.018</v>
       </c>
       <c r="E89" t="n">
-        <v>0.971</v>
+        <v>0.982</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1154346466064453</v>
+        <v>0.09911727905273438</v>
       </c>
     </row>
     <row r="90">
@@ -2402,13 +2402,13 @@
         <v>25</v>
       </c>
       <c r="D90" t="n">
-        <v>0.022</v>
+        <v>0.015</v>
       </c>
       <c r="E90" t="n">
-        <v>0.978</v>
+        <v>0.985</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1010055541992188</v>
+        <v>0.1112549304962158</v>
       </c>
     </row>
     <row r="91">
@@ -2424,13 +2424,13 @@
         <v>25</v>
       </c>
       <c r="D91" t="n">
-        <v>0.005</v>
+        <v>0.019</v>
       </c>
       <c r="E91" t="n">
-        <v>0.995</v>
+        <v>0.981</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1093487739562988</v>
+        <v>0.1032295227050781</v>
       </c>
     </row>
     <row r="92">
@@ -2446,13 +2446,13 @@
         <v>25</v>
       </c>
       <c r="D92" t="n">
-        <v>0.016</v>
+        <v>0.025</v>
       </c>
       <c r="E92" t="n">
-        <v>0.984</v>
+        <v>0.975</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1053011417388916</v>
+        <v>0.1072394847869873</v>
       </c>
     </row>
     <row r="93">
@@ -2468,13 +2468,13 @@
         <v>25</v>
       </c>
       <c r="D93" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="E93" t="n">
-        <v>0.989</v>
+        <v>0.99</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09372687339782715</v>
+        <v>0.1043124198913574</v>
       </c>
     </row>
     <row r="94">
@@ -2490,13 +2490,13 @@
         <v>25</v>
       </c>
       <c r="D94" t="n">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="E94" t="n">
-        <v>0.979</v>
+        <v>0.978</v>
       </c>
       <c r="F94" t="n">
-        <v>0.09368467330932617</v>
+        <v>0.1032965183258057</v>
       </c>
     </row>
     <row r="95">
@@ -2512,13 +2512,13 @@
         <v>25</v>
       </c>
       <c r="D95" t="n">
-        <v>0.019</v>
+        <v>0.011</v>
       </c>
       <c r="E95" t="n">
-        <v>0.981</v>
+        <v>0.989</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1093497276306152</v>
+        <v>0.1011762619018555</v>
       </c>
     </row>
     <row r="96">
@@ -2534,13 +2534,13 @@
         <v>25</v>
       </c>
       <c r="D96" t="n">
-        <v>0.011</v>
+        <v>0.019</v>
       </c>
       <c r="E96" t="n">
-        <v>0.989</v>
+        <v>0.981</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1093490123748779</v>
+        <v>0.1008932590484619</v>
       </c>
     </row>
     <row r="97">
@@ -2556,13 +2556,13 @@
         <v>25</v>
       </c>
       <c r="D97" t="n">
-        <v>0.006</v>
+        <v>0.014</v>
       </c>
       <c r="E97" t="n">
-        <v>0.994</v>
+        <v>0.986</v>
       </c>
       <c r="F97" t="n">
-        <v>0.109349250793457</v>
+        <v>0.1089584827423096</v>
       </c>
     </row>
     <row r="98">
@@ -2578,13 +2578,13 @@
         <v>25</v>
       </c>
       <c r="D98" t="n">
-        <v>0.027</v>
+        <v>0.034</v>
       </c>
       <c r="E98" t="n">
-        <v>0.973</v>
+        <v>0.966</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09372782707214355</v>
+        <v>0.1043381690979004</v>
       </c>
     </row>
     <row r="99">
@@ -2600,13 +2600,13 @@
         <v>25</v>
       </c>
       <c r="D99" t="n">
-        <v>0.018</v>
+        <v>0.01</v>
       </c>
       <c r="E99" t="n">
-        <v>0.982</v>
+        <v>0.99</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1093494892120361</v>
+        <v>0.1012327671051025</v>
       </c>
     </row>
     <row r="100">
@@ -2622,13 +2622,13 @@
         <v>25</v>
       </c>
       <c r="D100" t="n">
-        <v>0.017</v>
+        <v>0.024</v>
       </c>
       <c r="E100" t="n">
-        <v>0.983</v>
+        <v>0.976</v>
       </c>
       <c r="F100" t="n">
-        <v>0.09372830390930176</v>
+        <v>0.1010403633117676</v>
       </c>
     </row>
     <row r="101">
@@ -2644,13 +2644,13 @@
         <v>25</v>
       </c>
       <c r="D101" t="n">
-        <v>0.032</v>
+        <v>0.003</v>
       </c>
       <c r="E101" t="n">
-        <v>0.968</v>
+        <v>0.997</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1093487739562988</v>
+        <v>0.1014142036437988</v>
       </c>
     </row>
     <row r="102">
@@ -2666,13 +2666,13 @@
         <v>25</v>
       </c>
       <c r="D102" t="n">
-        <v>0.2347652347652348</v>
+        <v>0.1458541458541459</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7652347652347652</v>
+        <v>0.8541458541458542</v>
       </c>
       <c r="F102" t="n">
-        <v>9.53125</v>
+        <v>19.296875</v>
       </c>
     </row>
     <row r="103">
@@ -2688,13 +2688,13 @@
         <v>25</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2167832167832168</v>
+        <v>0.1498501498501499</v>
       </c>
       <c r="E103" t="n">
-        <v>0.7832167832167832</v>
+        <v>0.8501498501498501</v>
       </c>
       <c r="F103" t="n">
-        <v>9.5</v>
+        <v>19.1875</v>
       </c>
     </row>
     <row r="104">
@@ -2710,13 +2710,13 @@
         <v>25</v>
       </c>
       <c r="D104" t="n">
-        <v>0.2507492507492508</v>
+        <v>0.1288711288711289</v>
       </c>
       <c r="E104" t="n">
-        <v>0.7492507492507493</v>
+        <v>0.8711288711288712</v>
       </c>
       <c r="F104" t="n">
-        <v>9.9375</v>
+        <v>19.609375</v>
       </c>
     </row>
     <row r="105">
@@ -2732,13 +2732,13 @@
         <v>25</v>
       </c>
       <c r="D105" t="n">
-        <v>0.2277722277722278</v>
+        <v>0.1658341658341658</v>
       </c>
       <c r="E105" t="n">
-        <v>0.7722277722277723</v>
+        <v>0.8341658341658341</v>
       </c>
       <c r="F105" t="n">
-        <v>9.390625</v>
+        <v>19.09375</v>
       </c>
     </row>
     <row r="106">
@@ -2754,13 +2754,13 @@
         <v>25</v>
       </c>
       <c r="D106" t="n">
-        <v>0.2167832167832168</v>
+        <v>0.1738261738261738</v>
       </c>
       <c r="E106" t="n">
-        <v>0.7832167832167832</v>
+        <v>0.8261738261738262</v>
       </c>
       <c r="F106" t="n">
-        <v>9.46875</v>
+        <v>19.171875</v>
       </c>
     </row>
     <row r="107">
@@ -2776,13 +2776,13 @@
         <v>25</v>
       </c>
       <c r="D107" t="n">
-        <v>0.2477522477522477</v>
+        <v>0.1648351648351648</v>
       </c>
       <c r="E107" t="n">
-        <v>0.7522477522477522</v>
+        <v>0.8351648351648352</v>
       </c>
       <c r="F107" t="n">
-        <v>9.71875</v>
+        <v>19.453125</v>
       </c>
     </row>
     <row r="108">
@@ -2798,13 +2798,13 @@
         <v>25</v>
       </c>
       <c r="D108" t="n">
-        <v>0.2317682317682318</v>
+        <v>0.1348651348651349</v>
       </c>
       <c r="E108" t="n">
-        <v>0.7682317682317682</v>
+        <v>0.8651348651348651</v>
       </c>
       <c r="F108" t="n">
-        <v>9.8125</v>
+        <v>19.625</v>
       </c>
     </row>
     <row r="109">
@@ -2820,13 +2820,13 @@
         <v>25</v>
       </c>
       <c r="D109" t="n">
-        <v>0.2357642357642358</v>
+        <v>0.1518481518481518</v>
       </c>
       <c r="E109" t="n">
-        <v>0.7642357642357642</v>
+        <v>0.8481518481518482</v>
       </c>
       <c r="F109" t="n">
-        <v>9.796875</v>
+        <v>18.6875</v>
       </c>
     </row>
     <row r="110">
@@ -2842,13 +2842,13 @@
         <v>25</v>
       </c>
       <c r="D110" t="n">
-        <v>0.2177822177822178</v>
+        <v>0.1608391608391608</v>
       </c>
       <c r="E110" t="n">
-        <v>0.7822177822177823</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="F110" t="n">
-        <v>9.734375</v>
+        <v>18.59375</v>
       </c>
     </row>
     <row r="111">
@@ -2864,13 +2864,13 @@
         <v>25</v>
       </c>
       <c r="D111" t="n">
-        <v>0.2227772227772228</v>
+        <v>0.1208791208791209</v>
       </c>
       <c r="E111" t="n">
-        <v>0.7772227772227772</v>
+        <v>0.8791208791208791</v>
       </c>
       <c r="F111" t="n">
-        <v>9.765625</v>
+        <v>19.03125</v>
       </c>
     </row>
     <row r="112">
@@ -2886,13 +2886,13 @@
         <v>25</v>
       </c>
       <c r="D112" t="n">
-        <v>0.2367632367632368</v>
+        <v>0.1498501498501499</v>
       </c>
       <c r="E112" t="n">
-        <v>0.7632367632367633</v>
+        <v>0.8501498501498501</v>
       </c>
       <c r="F112" t="n">
-        <v>9.765625</v>
+        <v>18.9375</v>
       </c>
     </row>
     <row r="113">
@@ -2908,13 +2908,13 @@
         <v>25</v>
       </c>
       <c r="D113" t="n">
-        <v>0.2147852147852148</v>
+        <v>0.1318681318681319</v>
       </c>
       <c r="E113" t="n">
-        <v>0.7852147852147852</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="F113" t="n">
-        <v>9.890625</v>
+        <v>19.3125</v>
       </c>
     </row>
     <row r="114">
@@ -2930,13 +2930,13 @@
         <v>25</v>
       </c>
       <c r="D114" t="n">
-        <v>0.2207792207792208</v>
+        <v>0.1388611388611388</v>
       </c>
       <c r="E114" t="n">
-        <v>0.7792207792207793</v>
+        <v>0.8611388611388612</v>
       </c>
       <c r="F114" t="n">
-        <v>9.625</v>
+        <v>18.734375</v>
       </c>
     </row>
     <row r="115">
@@ -2952,13 +2952,13 @@
         <v>25</v>
       </c>
       <c r="D115" t="n">
-        <v>0.2667332667332667</v>
+        <v>0.1258741258741259</v>
       </c>
       <c r="E115" t="n">
-        <v>0.7332667332667333</v>
+        <v>0.8741258741258742</v>
       </c>
       <c r="F115" t="n">
-        <v>9.484375</v>
+        <v>19.921875</v>
       </c>
     </row>
     <row r="116">
@@ -2974,13 +2974,13 @@
         <v>25</v>
       </c>
       <c r="D116" t="n">
-        <v>0.2347652347652348</v>
+        <v>0.1228771228771229</v>
       </c>
       <c r="E116" t="n">
-        <v>0.7652347652347652</v>
+        <v>0.8771228771228772</v>
       </c>
       <c r="F116" t="n">
-        <v>9.765625</v>
+        <v>19.09375</v>
       </c>
     </row>
     <row r="117">
@@ -2996,13 +2996,13 @@
         <v>25</v>
       </c>
       <c r="D117" t="n">
-        <v>0.2197802197802198</v>
+        <v>0.1588411588411588</v>
       </c>
       <c r="E117" t="n">
-        <v>0.7802197802197802</v>
+        <v>0.8411588411588412</v>
       </c>
       <c r="F117" t="n">
-        <v>9.375</v>
+        <v>18.9375</v>
       </c>
     </row>
     <row r="118">
@@ -3018,13 +3018,13 @@
         <v>25</v>
       </c>
       <c r="D118" t="n">
-        <v>0.2437562437562437</v>
+        <v>0.1438561438561439</v>
       </c>
       <c r="E118" t="n">
-        <v>0.7562437562437563</v>
+        <v>0.8561438561438561</v>
       </c>
       <c r="F118" t="n">
-        <v>9.71875</v>
+        <v>19.078125</v>
       </c>
     </row>
     <row r="119">
@@ -3040,13 +3040,13 @@
         <v>25</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2207792207792208</v>
+        <v>0.1618381618381618</v>
       </c>
       <c r="E119" t="n">
-        <v>0.7792207792207793</v>
+        <v>0.8381618381618382</v>
       </c>
       <c r="F119" t="n">
-        <v>9.78125</v>
+        <v>19.703125</v>
       </c>
     </row>
     <row r="120">
@@ -3062,13 +3062,13 @@
         <v>25</v>
       </c>
       <c r="D120" t="n">
-        <v>0.2267732267732268</v>
+        <v>0.1388611388611388</v>
       </c>
       <c r="E120" t="n">
-        <v>0.7732267732267732</v>
+        <v>0.8611388611388612</v>
       </c>
       <c r="F120" t="n">
-        <v>9.359375</v>
+        <v>19.171875</v>
       </c>
     </row>
     <row r="121">
@@ -3084,13 +3084,13 @@
         <v>25</v>
       </c>
       <c r="D121" t="n">
-        <v>0.2557442557442557</v>
+        <v>0.1578421578421579</v>
       </c>
       <c r="E121" t="n">
-        <v>0.7442557442557443</v>
+        <v>0.8421578421578422</v>
       </c>
       <c r="F121" t="n">
-        <v>9.46875</v>
+        <v>18.875</v>
       </c>
     </row>
     <row r="122">
@@ -3106,13 +3106,13 @@
         <v>25</v>
       </c>
       <c r="D122" t="n">
-        <v>0.2597402597402597</v>
+        <v>0.1438561438561439</v>
       </c>
       <c r="E122" t="n">
-        <v>0.7402597402597403</v>
+        <v>0.8561438561438561</v>
       </c>
       <c r="F122" t="n">
-        <v>9.046875</v>
+        <v>19.546875</v>
       </c>
     </row>
     <row r="123">
@@ -3128,13 +3128,13 @@
         <v>25</v>
       </c>
       <c r="D123" t="n">
-        <v>0.2247752247752248</v>
+        <v>0.1458541458541459</v>
       </c>
       <c r="E123" t="n">
-        <v>0.7752247752247752</v>
+        <v>0.8541458541458542</v>
       </c>
       <c r="F123" t="n">
-        <v>9.75</v>
+        <v>18.265625</v>
       </c>
     </row>
     <row r="124">
@@ -3150,13 +3150,13 @@
         <v>25</v>
       </c>
       <c r="D124" t="n">
-        <v>0.2477522477522477</v>
+        <v>0.1608391608391608</v>
       </c>
       <c r="E124" t="n">
-        <v>0.7522477522477522</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="F124" t="n">
-        <v>9.390625</v>
+        <v>18.640625</v>
       </c>
     </row>
     <row r="125">
@@ -3172,13 +3172,13 @@
         <v>25</v>
       </c>
       <c r="D125" t="n">
-        <v>0.2597402597402597</v>
+        <v>0.1438561438561439</v>
       </c>
       <c r="E125" t="n">
-        <v>0.7402597402597403</v>
+        <v>0.8561438561438561</v>
       </c>
       <c r="F125" t="n">
-        <v>9.625</v>
+        <v>18.4375</v>
       </c>
     </row>
     <row r="126">
@@ -3194,13 +3194,13 @@
         <v>25</v>
       </c>
       <c r="D126" t="n">
-        <v>0.2137862137862138</v>
+        <v>0.1778221778221778</v>
       </c>
       <c r="E126" t="n">
-        <v>0.7862137862137862</v>
+        <v>0.8221778221778222</v>
       </c>
       <c r="F126" t="n">
-        <v>8.96875</v>
+        <v>17.359375</v>
       </c>
     </row>
     <row r="127">
@@ -3216,13 +3216,13 @@
         <v>25</v>
       </c>
       <c r="D127" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.01198801198801199</v>
       </c>
       <c r="E127" t="n">
-        <v>0.99000999000999</v>
+        <v>0.988011988011988</v>
       </c>
       <c r="F127" t="n">
-        <v>10</v>
+        <v>20.203125</v>
       </c>
     </row>
     <row r="128">
@@ -3238,13 +3238,13 @@
         <v>25</v>
       </c>
       <c r="D128" t="n">
-        <v>0.01998001998001998</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="E128" t="n">
-        <v>0.98001998001998</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="F128" t="n">
-        <v>10.296875</v>
+        <v>20.03125</v>
       </c>
     </row>
     <row r="129">
@@ -3260,13 +3260,13 @@
         <v>25</v>
       </c>
       <c r="D129" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="E129" t="n">
-        <v>0.988011988011988</v>
+        <v>0.993006993006993</v>
       </c>
       <c r="F129" t="n">
-        <v>10.3125</v>
+        <v>20.03125</v>
       </c>
     </row>
     <row r="130">
@@ -3282,13 +3282,13 @@
         <v>25</v>
       </c>
       <c r="D130" t="n">
-        <v>0.005994005994005994</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="E130" t="n">
-        <v>0.994005994005994</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="F130" t="n">
-        <v>10.84375</v>
+        <v>20.734375</v>
       </c>
     </row>
     <row r="131">
@@ -3304,13 +3304,13 @@
         <v>25</v>
       </c>
       <c r="D131" t="n">
-        <v>0.01498501498501499</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="E131" t="n">
-        <v>0.985014985014985</v>
+        <v>0.993006993006993</v>
       </c>
       <c r="F131" t="n">
-        <v>10.15625</v>
+        <v>20.171875</v>
       </c>
     </row>
     <row r="132">
@@ -3326,13 +3326,13 @@
         <v>25</v>
       </c>
       <c r="D132" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="E132" t="n">
-        <v>0.99000999000999</v>
+        <v>0.993006993006993</v>
       </c>
       <c r="F132" t="n">
-        <v>10.34375</v>
+        <v>19.9375</v>
       </c>
     </row>
     <row r="133">
@@ -3348,13 +3348,13 @@
         <v>25</v>
       </c>
       <c r="D133" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.007992007992007992</v>
       </c>
       <c r="E133" t="n">
-        <v>0.988011988011988</v>
+        <v>0.9920079920079921</v>
       </c>
       <c r="F133" t="n">
-        <v>10.109375</v>
+        <v>20.828125</v>
       </c>
     </row>
     <row r="134">
@@ -3370,13 +3370,13 @@
         <v>25</v>
       </c>
       <c r="D134" t="n">
-        <v>0.005994005994005994</v>
+        <v>0.007992007992007992</v>
       </c>
       <c r="E134" t="n">
-        <v>0.994005994005994</v>
+        <v>0.9920079920079921</v>
       </c>
       <c r="F134" t="n">
-        <v>10.046875</v>
+        <v>20.546875</v>
       </c>
     </row>
     <row r="135">
@@ -3392,13 +3392,13 @@
         <v>25</v>
       </c>
       <c r="D135" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="E135" t="n">
-        <v>0.99000999000999</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="F135" t="n">
-        <v>10.28125</v>
+        <v>19.59375</v>
       </c>
     </row>
     <row r="136">
@@ -3414,13 +3414,13 @@
         <v>25</v>
       </c>
       <c r="D136" t="n">
-        <v>0.01598401598401598</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="E136" t="n">
-        <v>0.984015984015984</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="F136" t="n">
-        <v>9.953125</v>
+        <v>20.1875</v>
       </c>
     </row>
     <row r="137">
@@ -3436,13 +3436,13 @@
         <v>25</v>
       </c>
       <c r="D137" t="n">
-        <v>0.01498501498501499</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="E137" t="n">
-        <v>0.985014985014985</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="F137" t="n">
-        <v>10.203125</v>
+        <v>19.875</v>
       </c>
     </row>
     <row r="138">
@@ -3458,13 +3458,13 @@
         <v>25</v>
       </c>
       <c r="D138" t="n">
-        <v>0.01898101898101898</v>
+        <v>0.01598401598401598</v>
       </c>
       <c r="E138" t="n">
-        <v>0.981018981018981</v>
+        <v>0.984015984015984</v>
       </c>
       <c r="F138" t="n">
-        <v>10.078125</v>
+        <v>20.6875</v>
       </c>
     </row>
     <row r="139">
@@ -3480,13 +3480,13 @@
         <v>25</v>
       </c>
       <c r="D139" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="E139" t="n">
-        <v>0.99000999000999</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="F139" t="n">
-        <v>10.34375</v>
+        <v>20.0625</v>
       </c>
     </row>
     <row r="140">
@@ -3502,13 +3502,13 @@
         <v>25</v>
       </c>
       <c r="D140" t="n">
-        <v>0.006993006993006993</v>
+        <v>0.005994005994005994</v>
       </c>
       <c r="E140" t="n">
-        <v>0.993006993006993</v>
+        <v>0.994005994005994</v>
       </c>
       <c r="F140" t="n">
-        <v>10.1875</v>
+        <v>21.0625</v>
       </c>
     </row>
     <row r="141">
@@ -3524,13 +3524,13 @@
         <v>25</v>
       </c>
       <c r="D141" t="n">
-        <v>0.01698301698301698</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="E141" t="n">
-        <v>0.983016983016983</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="F141" t="n">
-        <v>10.078125</v>
+        <v>20.625</v>
       </c>
     </row>
     <row r="142">
@@ -3546,13 +3546,13 @@
         <v>25</v>
       </c>
       <c r="D142" t="n">
-        <v>0.008991008991008992</v>
+        <v>0.00999000999000999</v>
       </c>
       <c r="E142" t="n">
-        <v>0.991008991008991</v>
+        <v>0.99000999000999</v>
       </c>
       <c r="F142" t="n">
-        <v>10.375</v>
+        <v>19.765625</v>
       </c>
     </row>
     <row r="143">
@@ -3568,13 +3568,13 @@
         <v>25</v>
       </c>
       <c r="D143" t="n">
-        <v>0.01398601398601399</v>
+        <v>0.01198801198801199</v>
       </c>
       <c r="E143" t="n">
-        <v>0.986013986013986</v>
+        <v>0.988011988011988</v>
       </c>
       <c r="F143" t="n">
-        <v>10.328125</v>
+        <v>20.765625</v>
       </c>
     </row>
     <row r="144">
@@ -3590,13 +3590,13 @@
         <v>25</v>
       </c>
       <c r="D144" t="n">
-        <v>0.006993006993006993</v>
+        <v>0.008991008991008992</v>
       </c>
       <c r="E144" t="n">
-        <v>0.993006993006993</v>
+        <v>0.991008991008991</v>
       </c>
       <c r="F144" t="n">
-        <v>10.578125</v>
+        <v>21.078125</v>
       </c>
     </row>
     <row r="145">
@@ -3612,13 +3612,13 @@
         <v>25</v>
       </c>
       <c r="D145" t="n">
-        <v>0.003996003996003996</v>
+        <v>0.008991008991008992</v>
       </c>
       <c r="E145" t="n">
-        <v>0.996003996003996</v>
+        <v>0.991008991008991</v>
       </c>
       <c r="F145" t="n">
-        <v>10.1875</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="146">
@@ -3640,7 +3640,7 @@
         <v>0.9890109890109891</v>
       </c>
       <c r="F146" t="n">
-        <v>10.5</v>
+        <v>19.515625</v>
       </c>
     </row>
     <row r="147">
@@ -3656,13 +3656,13 @@
         <v>25</v>
       </c>
       <c r="D147" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="E147" t="n">
-        <v>0.988011988011988</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="F147" t="n">
-        <v>10.0625</v>
+        <v>20.34375</v>
       </c>
     </row>
     <row r="148">
@@ -3678,13 +3678,13 @@
         <v>25</v>
       </c>
       <c r="D148" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="E148" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="F148" t="n">
-        <v>10.203125</v>
+        <v>19.578125</v>
       </c>
     </row>
     <row r="149">
@@ -3700,13 +3700,13 @@
         <v>25</v>
       </c>
       <c r="D149" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.01498501498501499</v>
       </c>
       <c r="E149" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.985014985014985</v>
       </c>
       <c r="F149" t="n">
-        <v>9.65625</v>
+        <v>19.4375</v>
       </c>
     </row>
     <row r="150">
@@ -3722,13 +3722,13 @@
         <v>25</v>
       </c>
       <c r="D150" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.008991008991008992</v>
       </c>
       <c r="E150" t="n">
-        <v>0.987012987012987</v>
+        <v>0.991008991008991</v>
       </c>
       <c r="F150" t="n">
-        <v>9.984375</v>
+        <v>19.046875</v>
       </c>
     </row>
     <row r="151">
@@ -3744,13 +3744,13 @@
         <v>25</v>
       </c>
       <c r="D151" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="E151" t="n">
-        <v>0.988011988011988</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="F151" t="n">
-        <v>9.703125</v>
+        <v>19.96875</v>
       </c>
     </row>
     <row r="152">
@@ -3766,13 +3766,13 @@
         <v>25</v>
       </c>
       <c r="D152" t="n">
-        <v>0.2137862137862138</v>
+        <v>0.1368631368631369</v>
       </c>
       <c r="E152" t="n">
-        <v>0.7862137862137862</v>
+        <v>0.8631368631368631</v>
       </c>
       <c r="F152" t="n">
-        <v>10.5625</v>
+        <v>20.890625</v>
       </c>
     </row>
     <row r="153">
@@ -3788,13 +3788,13 @@
         <v>25</v>
       </c>
       <c r="D153" t="n">
-        <v>0.2397602397602398</v>
+        <v>0.1668331668331668</v>
       </c>
       <c r="E153" t="n">
-        <v>0.7602397602397603</v>
+        <v>0.8331668331668332</v>
       </c>
       <c r="F153" t="n">
-        <v>10.921875</v>
+        <v>21.3125</v>
       </c>
     </row>
     <row r="154">
@@ -3810,13 +3810,13 @@
         <v>25</v>
       </c>
       <c r="D154" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.1388611388611388</v>
       </c>
       <c r="E154" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8611388611388612</v>
       </c>
       <c r="F154" t="n">
-        <v>11.140625</v>
+        <v>21.65625</v>
       </c>
     </row>
     <row r="155">
@@ -3832,13 +3832,13 @@
         <v>25</v>
       </c>
       <c r="D155" t="n">
-        <v>0.2117882117882118</v>
+        <v>0.1458541458541459</v>
       </c>
       <c r="E155" t="n">
-        <v>0.7882117882117882</v>
+        <v>0.8541458541458542</v>
       </c>
       <c r="F155" t="n">
-        <v>10.953125</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="156">
@@ -3854,13 +3854,13 @@
         <v>25</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2687312687312687</v>
+        <v>0.1528471528471528</v>
       </c>
       <c r="E156" t="n">
-        <v>0.7312687312687313</v>
+        <v>0.8471528471528471</v>
       </c>
       <c r="F156" t="n">
-        <v>11.28125</v>
+        <v>22.21875</v>
       </c>
     </row>
     <row r="157">
@@ -3876,13 +3876,13 @@
         <v>25</v>
       </c>
       <c r="D157" t="n">
-        <v>0.2427572427572428</v>
+        <v>0.1528471528471528</v>
       </c>
       <c r="E157" t="n">
-        <v>0.7572427572427572</v>
+        <v>0.8471528471528471</v>
       </c>
       <c r="F157" t="n">
-        <v>11.671875</v>
+        <v>22.125</v>
       </c>
     </row>
     <row r="158">
@@ -3898,13 +3898,13 @@
         <v>25</v>
       </c>
       <c r="D158" t="n">
-        <v>0.2277722277722278</v>
+        <v>0.1588411588411588</v>
       </c>
       <c r="E158" t="n">
-        <v>0.7722277722277723</v>
+        <v>0.8411588411588412</v>
       </c>
       <c r="F158" t="n">
-        <v>11.078125</v>
+        <v>21.859375</v>
       </c>
     </row>
     <row r="159">
@@ -3920,13 +3920,13 @@
         <v>25</v>
       </c>
       <c r="D159" t="n">
-        <v>0.2137862137862138</v>
+        <v>0.1748251748251748</v>
       </c>
       <c r="E159" t="n">
-        <v>0.7862137862137862</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="F159" t="n">
-        <v>10.859375</v>
+        <v>21.59375</v>
       </c>
     </row>
     <row r="160">
@@ -3942,13 +3942,13 @@
         <v>25</v>
       </c>
       <c r="D160" t="n">
-        <v>0.1958041958041958</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E160" t="n">
-        <v>0.8041958041958042</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="F160" t="n">
-        <v>10.640625</v>
+        <v>22.046875</v>
       </c>
     </row>
     <row r="161">
@@ -3964,13 +3964,13 @@
         <v>25</v>
       </c>
       <c r="D161" t="n">
-        <v>0.2267732267732268</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="E161" t="n">
-        <v>0.7732267732267732</v>
+        <v>0.8441558441558441</v>
       </c>
       <c r="F161" t="n">
-        <v>11.421875</v>
+        <v>21.78125</v>
       </c>
     </row>
     <row r="162">
@@ -3986,13 +3986,13 @@
         <v>25</v>
       </c>
       <c r="D162" t="n">
-        <v>0.2367632367632368</v>
+        <v>0.1498501498501499</v>
       </c>
       <c r="E162" t="n">
-        <v>0.7632367632367633</v>
+        <v>0.8501498501498501</v>
       </c>
       <c r="F162" t="n">
-        <v>11.046875</v>
+        <v>21.625</v>
       </c>
     </row>
     <row r="163">
@@ -4008,13 +4008,13 @@
         <v>25</v>
       </c>
       <c r="D163" t="n">
-        <v>0.2347652347652348</v>
+        <v>0.1618381618381618</v>
       </c>
       <c r="E163" t="n">
-        <v>0.7652347652347652</v>
+        <v>0.8381618381618382</v>
       </c>
       <c r="F163" t="n">
-        <v>10.796875</v>
+        <v>21.984375</v>
       </c>
     </row>
     <row r="164">
@@ -4030,13 +4030,13 @@
         <v>25</v>
       </c>
       <c r="D164" t="n">
-        <v>0.2107892107892108</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="E164" t="n">
-        <v>0.7892107892107892</v>
+        <v>0.8441558441558441</v>
       </c>
       <c r="F164" t="n">
-        <v>10.890625</v>
+        <v>22.125</v>
       </c>
     </row>
     <row r="165">
@@ -4052,13 +4052,13 @@
         <v>25</v>
       </c>
       <c r="D165" t="n">
-        <v>0.2587412587412588</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="E165" t="n">
-        <v>0.7412587412587412</v>
+        <v>0.8311688311688312</v>
       </c>
       <c r="F165" t="n">
-        <v>10.8125</v>
+        <v>22.265625</v>
       </c>
     </row>
     <row r="166">
@@ -4074,13 +4074,13 @@
         <v>25</v>
       </c>
       <c r="D166" t="n">
-        <v>0.2267732267732268</v>
+        <v>0.1408591408591409</v>
       </c>
       <c r="E166" t="n">
-        <v>0.7732267732267732</v>
+        <v>0.8591408591408591</v>
       </c>
       <c r="F166" t="n">
-        <v>11.0625</v>
+        <v>21.171875</v>
       </c>
     </row>
     <row r="167">
@@ -4096,13 +4096,13 @@
         <v>25</v>
       </c>
       <c r="D167" t="n">
-        <v>0.2297702297702298</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E167" t="n">
-        <v>0.7702297702297702</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="F167" t="n">
-        <v>11.1875</v>
+        <v>22.375</v>
       </c>
     </row>
     <row r="168">
@@ -4118,13 +4118,13 @@
         <v>25</v>
       </c>
       <c r="D168" t="n">
-        <v>0.2367632367632368</v>
+        <v>0.1668331668331668</v>
       </c>
       <c r="E168" t="n">
-        <v>0.7632367632367633</v>
+        <v>0.8331668331668332</v>
       </c>
       <c r="F168" t="n">
-        <v>10.609375</v>
+        <v>22.15625</v>
       </c>
     </row>
     <row r="169">
@@ -4140,13 +4140,13 @@
         <v>25</v>
       </c>
       <c r="D169" t="n">
-        <v>0.2327672327672328</v>
+        <v>0.1568431568431568</v>
       </c>
       <c r="E169" t="n">
-        <v>0.7672327672327672</v>
+        <v>0.8431568431568431</v>
       </c>
       <c r="F169" t="n">
-        <v>11.046875</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="170">
@@ -4162,13 +4162,13 @@
         <v>25</v>
       </c>
       <c r="D170" t="n">
-        <v>0.2457542457542458</v>
+        <v>0.1748251748251748</v>
       </c>
       <c r="E170" t="n">
-        <v>0.7542457542457542</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="F170" t="n">
-        <v>11.140625</v>
+        <v>21.84375</v>
       </c>
     </row>
     <row r="171">
@@ -4184,13 +4184,13 @@
         <v>25</v>
       </c>
       <c r="D171" t="n">
-        <v>0.2087912087912088</v>
+        <v>0.1628371628371628</v>
       </c>
       <c r="E171" t="n">
-        <v>0.7912087912087912</v>
+        <v>0.8371628371628371</v>
       </c>
       <c r="F171" t="n">
-        <v>11.15625</v>
+        <v>21.375</v>
       </c>
     </row>
     <row r="172">
@@ -4206,13 +4206,13 @@
         <v>25</v>
       </c>
       <c r="D172" t="n">
-        <v>0.2447552447552448</v>
+        <v>0.1578421578421579</v>
       </c>
       <c r="E172" t="n">
-        <v>0.7552447552447552</v>
+        <v>0.8421578421578422</v>
       </c>
       <c r="F172" t="n">
-        <v>11.125</v>
+        <v>21.1875</v>
       </c>
     </row>
     <row r="173">
@@ -4228,13 +4228,13 @@
         <v>25</v>
       </c>
       <c r="D173" t="n">
-        <v>0.2547452547452547</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="E173" t="n">
-        <v>0.7452547452547452</v>
+        <v>0.8441558441558441</v>
       </c>
       <c r="F173" t="n">
-        <v>10.90625</v>
+        <v>21.03125</v>
       </c>
     </row>
     <row r="174">
@@ -4250,13 +4250,13 @@
         <v>25</v>
       </c>
       <c r="D174" t="n">
-        <v>0.2187812187812188</v>
+        <v>0.1568431568431568</v>
       </c>
       <c r="E174" t="n">
-        <v>0.7812187812187812</v>
+        <v>0.8431568431568431</v>
       </c>
       <c r="F174" t="n">
-        <v>11.09375</v>
+        <v>21.359375</v>
       </c>
     </row>
     <row r="175">
@@ -4272,13 +4272,13 @@
         <v>25</v>
       </c>
       <c r="D175" t="n">
-        <v>0.2287712287712288</v>
+        <v>0.1268731268731269</v>
       </c>
       <c r="E175" t="n">
-        <v>0.7712287712287712</v>
+        <v>0.8731268731268731</v>
       </c>
       <c r="F175" t="n">
-        <v>10.40625</v>
+        <v>21.546875</v>
       </c>
     </row>
     <row r="176">
@@ -4294,13 +4294,13 @@
         <v>25</v>
       </c>
       <c r="D176" t="n">
-        <v>0.2347652347652348</v>
+        <v>0.1618381618381618</v>
       </c>
       <c r="E176" t="n">
-        <v>0.7652347652347652</v>
+        <v>0.8381618381618382</v>
       </c>
       <c r="F176" t="n">
-        <v>9.953125</v>
+        <v>21.140625</v>
       </c>
     </row>
     <row r="177">
@@ -4316,13 +4316,13 @@
         <v>25</v>
       </c>
       <c r="D177" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="E177" t="n">
-        <v>0.99000999000999</v>
+        <v>0.993006993006993</v>
       </c>
       <c r="F177" t="n">
-        <v>11.453125</v>
+        <v>23.375</v>
       </c>
     </row>
     <row r="178">
@@ -4338,13 +4338,13 @@
         <v>25</v>
       </c>
       <c r="D178" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.008991008991008992</v>
       </c>
       <c r="E178" t="n">
-        <v>0.988011988011988</v>
+        <v>0.991008991008991</v>
       </c>
       <c r="F178" t="n">
-        <v>11.78125</v>
+        <v>22.078125</v>
       </c>
     </row>
     <row r="179">
@@ -4360,13 +4360,13 @@
         <v>25</v>
       </c>
       <c r="D179" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.01698301698301698</v>
       </c>
       <c r="E179" t="n">
-        <v>0.99000999000999</v>
+        <v>0.983016983016983</v>
       </c>
       <c r="F179" t="n">
-        <v>11.625</v>
+        <v>22.4375</v>
       </c>
     </row>
     <row r="180">
@@ -4382,13 +4382,13 @@
         <v>25</v>
       </c>
       <c r="D180" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="E180" t="n">
-        <v>0.988011988011988</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="F180" t="n">
-        <v>11.453125</v>
+        <v>22.8125</v>
       </c>
     </row>
     <row r="181">
@@ -4404,13 +4404,13 @@
         <v>25</v>
       </c>
       <c r="D181" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.01998001998001998</v>
       </c>
       <c r="E181" t="n">
-        <v>0.987012987012987</v>
+        <v>0.98001998001998</v>
       </c>
       <c r="F181" t="n">
-        <v>11.59375</v>
+        <v>22.5625</v>
       </c>
     </row>
     <row r="182">
@@ -4426,13 +4426,13 @@
         <v>25</v>
       </c>
       <c r="D182" t="n">
-        <v>0.01498501498501499</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="E182" t="n">
-        <v>0.985014985014985</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="F182" t="n">
-        <v>11.71875</v>
+        <v>22.953125</v>
       </c>
     </row>
     <row r="183">
@@ -4448,13 +4448,13 @@
         <v>25</v>
       </c>
       <c r="D183" t="n">
-        <v>0.008991008991008992</v>
+        <v>0.01598401598401598</v>
       </c>
       <c r="E183" t="n">
-        <v>0.991008991008991</v>
+        <v>0.984015984015984</v>
       </c>
       <c r="F183" t="n">
-        <v>11.46875</v>
+        <v>22.671875</v>
       </c>
     </row>
     <row r="184">
@@ -4470,13 +4470,13 @@
         <v>25</v>
       </c>
       <c r="D184" t="n">
-        <v>0.01598401598401598</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="E184" t="n">
-        <v>0.984015984015984</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="F184" t="n">
-        <v>11.5625</v>
+        <v>22.9375</v>
       </c>
     </row>
     <row r="185">
@@ -4492,13 +4492,13 @@
         <v>25</v>
       </c>
       <c r="D185" t="n">
-        <v>0.008991008991008992</v>
+        <v>0.01198801198801199</v>
       </c>
       <c r="E185" t="n">
-        <v>0.991008991008991</v>
+        <v>0.988011988011988</v>
       </c>
       <c r="F185" t="n">
-        <v>11.609375</v>
+        <v>22.734375</v>
       </c>
     </row>
     <row r="186">
@@ -4514,13 +4514,13 @@
         <v>25</v>
       </c>
       <c r="D186" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="E186" t="n">
-        <v>0.987012987012987</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="F186" t="n">
-        <v>11.375</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="187">
@@ -4542,7 +4542,7 @@
         <v>0.988011988011988</v>
       </c>
       <c r="F187" t="n">
-        <v>11.34375</v>
+        <v>22.703125</v>
       </c>
     </row>
     <row r="188">
@@ -4558,13 +4558,13 @@
         <v>25</v>
       </c>
       <c r="D188" t="n">
-        <v>0.007992007992007992</v>
+        <v>0.00999000999000999</v>
       </c>
       <c r="E188" t="n">
-        <v>0.9920079920079921</v>
+        <v>0.99000999000999</v>
       </c>
       <c r="F188" t="n">
-        <v>11.234375</v>
+        <v>22.5625</v>
       </c>
     </row>
     <row r="189">
@@ -4580,13 +4580,13 @@
         <v>25</v>
       </c>
       <c r="D189" t="n">
-        <v>0.01398601398601399</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="E189" t="n">
-        <v>0.986013986013986</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="F189" t="n">
-        <v>11.546875</v>
+        <v>22.796875</v>
       </c>
     </row>
     <row r="190">
@@ -4602,13 +4602,13 @@
         <v>25</v>
       </c>
       <c r="D190" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.01198801198801199</v>
       </c>
       <c r="E190" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.988011988011988</v>
       </c>
       <c r="F190" t="n">
-        <v>11.515625</v>
+        <v>22.96875</v>
       </c>
     </row>
     <row r="191">
@@ -4624,13 +4624,13 @@
         <v>25</v>
       </c>
       <c r="D191" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.007992007992007992</v>
       </c>
       <c r="E191" t="n">
-        <v>0.99000999000999</v>
+        <v>0.9920079920079921</v>
       </c>
       <c r="F191" t="n">
-        <v>11.375</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="192">
@@ -4646,13 +4646,13 @@
         <v>25</v>
       </c>
       <c r="D192" t="n">
-        <v>0.008991008991008992</v>
+        <v>0.00999000999000999</v>
       </c>
       <c r="E192" t="n">
-        <v>0.991008991008991</v>
+        <v>0.99000999000999</v>
       </c>
       <c r="F192" t="n">
-        <v>11.390625</v>
+        <v>22.875</v>
       </c>
     </row>
     <row r="193">
@@ -4668,13 +4668,13 @@
         <v>25</v>
       </c>
       <c r="D193" t="n">
-        <v>0.007992007992007992</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="E193" t="n">
-        <v>0.9920079920079921</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="F193" t="n">
-        <v>11.5625</v>
+        <v>22.765625</v>
       </c>
     </row>
     <row r="194">
@@ -4690,13 +4690,13 @@
         <v>25</v>
       </c>
       <c r="D194" t="n">
-        <v>0.006993006993006993</v>
+        <v>0.01498501498501499</v>
       </c>
       <c r="E194" t="n">
-        <v>0.993006993006993</v>
+        <v>0.985014985014985</v>
       </c>
       <c r="F194" t="n">
-        <v>11.625</v>
+        <v>23.09375</v>
       </c>
     </row>
     <row r="195">
@@ -4712,13 +4712,13 @@
         <v>25</v>
       </c>
       <c r="D195" t="n">
-        <v>0.01698301698301698</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="E195" t="n">
-        <v>0.983016983016983</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="F195" t="n">
-        <v>11.6875</v>
+        <v>22.390625</v>
       </c>
     </row>
     <row r="196">
@@ -4734,13 +4734,13 @@
         <v>25</v>
       </c>
       <c r="D196" t="n">
-        <v>0.01898101898101898</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="E196" t="n">
-        <v>0.981018981018981</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="F196" t="n">
-        <v>11.75</v>
+        <v>22.796875</v>
       </c>
     </row>
     <row r="197">
@@ -4756,13 +4756,13 @@
         <v>25</v>
       </c>
       <c r="D197" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.005994005994005994</v>
       </c>
       <c r="E197" t="n">
-        <v>0.99000999000999</v>
+        <v>0.994005994005994</v>
       </c>
       <c r="F197" t="n">
-        <v>12</v>
+        <v>22.359375</v>
       </c>
     </row>
     <row r="198">
@@ -4778,13 +4778,13 @@
         <v>25</v>
       </c>
       <c r="D198" t="n">
-        <v>0.007992007992007992</v>
+        <v>0.00999000999000999</v>
       </c>
       <c r="E198" t="n">
-        <v>0.9920079920079921</v>
+        <v>0.99000999000999</v>
       </c>
       <c r="F198" t="n">
-        <v>11.796875</v>
+        <v>22.640625</v>
       </c>
     </row>
     <row r="199">
@@ -4800,13 +4800,13 @@
         <v>25</v>
       </c>
       <c r="D199" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.008991008991008992</v>
       </c>
       <c r="E199" t="n">
-        <v>0.988011988011988</v>
+        <v>0.991008991008991</v>
       </c>
       <c r="F199" t="n">
-        <v>11.75</v>
+        <v>22.234375</v>
       </c>
     </row>
     <row r="200">
@@ -4822,13 +4822,13 @@
         <v>25</v>
       </c>
       <c r="D200" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="E200" t="n">
-        <v>0.988011988011988</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="F200" t="n">
-        <v>11.5625</v>
+        <v>22.640625</v>
       </c>
     </row>
     <row r="201">
@@ -4844,13 +4844,13 @@
         <v>25</v>
       </c>
       <c r="D201" t="n">
-        <v>0.01398601398601399</v>
+        <v>0.005994005994005994</v>
       </c>
       <c r="E201" t="n">
-        <v>0.986013986013986</v>
+        <v>0.994005994005994</v>
       </c>
       <c r="F201" t="n">
-        <v>11.796875</v>
+        <v>21.609375</v>
       </c>
     </row>
     <row r="202">
@@ -4866,13 +4866,13 @@
         <v>25</v>
       </c>
       <c r="D202" t="n">
-        <v>0.2357642357642358</v>
+        <v>0.1658341658341658</v>
       </c>
       <c r="E202" t="n">
-        <v>0.7642357642357642</v>
+        <v>0.8341658341658341</v>
       </c>
       <c r="F202" t="n">
-        <v>12.25</v>
+        <v>24.109375</v>
       </c>
     </row>
     <row r="203">
@@ -4888,13 +4888,13 @@
         <v>25</v>
       </c>
       <c r="D203" t="n">
-        <v>0.2217782217782218</v>
+        <v>0.1748251748251748</v>
       </c>
       <c r="E203" t="n">
-        <v>0.7782217782217782</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="F203" t="n">
-        <v>12.390625</v>
+        <v>23.96875</v>
       </c>
     </row>
     <row r="204">
@@ -4910,13 +4910,13 @@
         <v>25</v>
       </c>
       <c r="D204" t="n">
-        <v>0.2227772227772228</v>
+        <v>0.1488511488511489</v>
       </c>
       <c r="E204" t="n">
-        <v>0.7772227772227772</v>
+        <v>0.8511488511488512</v>
       </c>
       <c r="F204" t="n">
-        <v>12.28125</v>
+        <v>24.4375</v>
       </c>
     </row>
     <row r="205">
@@ -4932,13 +4932,13 @@
         <v>25</v>
       </c>
       <c r="D205" t="n">
-        <v>0.2387612387612388</v>
+        <v>0.1798201798201798</v>
       </c>
       <c r="E205" t="n">
-        <v>0.7612387612387612</v>
+        <v>0.8201798201798202</v>
       </c>
       <c r="F205" t="n">
-        <v>12.953125</v>
+        <v>24.875</v>
       </c>
     </row>
     <row r="206">
@@ -4954,13 +4954,13 @@
         <v>25</v>
       </c>
       <c r="D206" t="n">
-        <v>0.2067932067932068</v>
+        <v>0.1638361638361638</v>
       </c>
       <c r="E206" t="n">
-        <v>0.7932067932067932</v>
+        <v>0.8361638361638362</v>
       </c>
       <c r="F206" t="n">
-        <v>12.46875</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="207">
@@ -4976,13 +4976,13 @@
         <v>25</v>
       </c>
       <c r="D207" t="n">
-        <v>0.2367632367632368</v>
+        <v>0.1618381618381618</v>
       </c>
       <c r="E207" t="n">
-        <v>0.7632367632367633</v>
+        <v>0.8381618381618382</v>
       </c>
       <c r="F207" t="n">
-        <v>12.484375</v>
+        <v>23.90625</v>
       </c>
     </row>
     <row r="208">
@@ -4998,13 +4998,13 @@
         <v>25</v>
       </c>
       <c r="D208" t="n">
-        <v>0.2157842157842158</v>
+        <v>0.1628371628371628</v>
       </c>
       <c r="E208" t="n">
-        <v>0.7842157842157842</v>
+        <v>0.8371628371628371</v>
       </c>
       <c r="F208" t="n">
-        <v>12.4375</v>
+        <v>24.625</v>
       </c>
     </row>
     <row r="209">
@@ -5020,13 +5020,13 @@
         <v>25</v>
       </c>
       <c r="D209" t="n">
-        <v>0.2197802197802198</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="E209" t="n">
-        <v>0.7802197802197802</v>
+        <v>0.8241758241758241</v>
       </c>
       <c r="F209" t="n">
-        <v>12.1875</v>
+        <v>24.5625</v>
       </c>
     </row>
     <row r="210">
@@ -5042,13 +5042,13 @@
         <v>25</v>
       </c>
       <c r="D210" t="n">
-        <v>0.2327672327672328</v>
+        <v>0.1478521478521478</v>
       </c>
       <c r="E210" t="n">
-        <v>0.7672327672327672</v>
+        <v>0.8521478521478522</v>
       </c>
       <c r="F210" t="n">
-        <v>12.21875</v>
+        <v>23.78125</v>
       </c>
     </row>
     <row r="211">
@@ -5064,13 +5064,13 @@
         <v>25</v>
       </c>
       <c r="D211" t="n">
-        <v>0.2577422577422577</v>
+        <v>0.1328671328671329</v>
       </c>
       <c r="E211" t="n">
-        <v>0.7422577422577422</v>
+        <v>0.8671328671328671</v>
       </c>
       <c r="F211" t="n">
-        <v>12.578125</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="212">
@@ -5086,13 +5086,13 @@
         <v>25</v>
       </c>
       <c r="D212" t="n">
-        <v>0.2277722277722278</v>
+        <v>0.1368631368631369</v>
       </c>
       <c r="E212" t="n">
-        <v>0.7722277722277723</v>
+        <v>0.8631368631368631</v>
       </c>
       <c r="F212" t="n">
-        <v>12.078125</v>
+        <v>24.40625</v>
       </c>
     </row>
     <row r="213">
@@ -5108,13 +5108,13 @@
         <v>25</v>
       </c>
       <c r="D213" t="n">
-        <v>0.2157842157842158</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E213" t="n">
-        <v>0.7842157842157842</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="F213" t="n">
-        <v>12.234375</v>
+        <v>24.53125</v>
       </c>
     </row>
     <row r="214">
@@ -5130,13 +5130,13 @@
         <v>25</v>
       </c>
       <c r="D214" t="n">
-        <v>0.2107892107892108</v>
+        <v>0.1648351648351648</v>
       </c>
       <c r="E214" t="n">
-        <v>0.7892107892107892</v>
+        <v>0.8351648351648352</v>
       </c>
       <c r="F214" t="n">
-        <v>12.34375</v>
+        <v>24.515625</v>
       </c>
     </row>
     <row r="215">
@@ -5152,13 +5152,13 @@
         <v>25</v>
       </c>
       <c r="D215" t="n">
-        <v>0.2197802197802198</v>
+        <v>0.1618381618381618</v>
       </c>
       <c r="E215" t="n">
-        <v>0.7802197802197802</v>
+        <v>0.8381618381618382</v>
       </c>
       <c r="F215" t="n">
-        <v>12.25</v>
+        <v>24.25</v>
       </c>
     </row>
     <row r="216">
@@ -5174,13 +5174,13 @@
         <v>25</v>
       </c>
       <c r="D216" t="n">
-        <v>0.2137862137862138</v>
+        <v>0.1408591408591409</v>
       </c>
       <c r="E216" t="n">
-        <v>0.7862137862137862</v>
+        <v>0.8591408591408591</v>
       </c>
       <c r="F216" t="n">
-        <v>12.1875</v>
+        <v>24.625</v>
       </c>
     </row>
     <row r="217">
@@ -5196,13 +5196,13 @@
         <v>25</v>
       </c>
       <c r="D217" t="n">
-        <v>0.2237762237762238</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="E217" t="n">
-        <v>0.7762237762237763</v>
+        <v>0.8441558441558441</v>
       </c>
       <c r="F217" t="n">
-        <v>12.09375</v>
+        <v>24.234375</v>
       </c>
     </row>
     <row r="218">
@@ -5218,13 +5218,13 @@
         <v>25</v>
       </c>
       <c r="D218" t="n">
-        <v>0.2317682317682318</v>
+        <v>0.1668331668331668</v>
       </c>
       <c r="E218" t="n">
-        <v>0.7682317682317682</v>
+        <v>0.8331668331668332</v>
       </c>
       <c r="F218" t="n">
-        <v>12.21875</v>
+        <v>24.25</v>
       </c>
     </row>
     <row r="219">
@@ -5240,13 +5240,13 @@
         <v>25</v>
       </c>
       <c r="D219" t="n">
-        <v>0.2157842157842158</v>
+        <v>0.1388611388611388</v>
       </c>
       <c r="E219" t="n">
-        <v>0.7842157842157842</v>
+        <v>0.8611388611388612</v>
       </c>
       <c r="F219" t="n">
-        <v>12.109375</v>
+        <v>24.421875</v>
       </c>
     </row>
     <row r="220">
@@ -5262,13 +5262,13 @@
         <v>25</v>
       </c>
       <c r="D220" t="n">
-        <v>0.2597402597402597</v>
+        <v>0.1618381618381618</v>
       </c>
       <c r="E220" t="n">
-        <v>0.7402597402597403</v>
+        <v>0.8381618381618382</v>
       </c>
       <c r="F220" t="n">
-        <v>12.4375</v>
+        <v>24.1875</v>
       </c>
     </row>
     <row r="221">
@@ -5284,13 +5284,13 @@
         <v>25</v>
       </c>
       <c r="D221" t="n">
-        <v>0.2447552447552448</v>
+        <v>0.1338661338661339</v>
       </c>
       <c r="E221" t="n">
-        <v>0.7552447552447552</v>
+        <v>0.8661338661338661</v>
       </c>
       <c r="F221" t="n">
-        <v>12.1875</v>
+        <v>23.953125</v>
       </c>
     </row>
     <row r="222">
@@ -5306,13 +5306,13 @@
         <v>25</v>
       </c>
       <c r="D222" t="n">
-        <v>0.2427572427572428</v>
+        <v>0.1588411588411588</v>
       </c>
       <c r="E222" t="n">
-        <v>0.7572427572427572</v>
+        <v>0.8411588411588412</v>
       </c>
       <c r="F222" t="n">
-        <v>12</v>
+        <v>24.375</v>
       </c>
     </row>
     <row r="223">
@@ -5328,13 +5328,13 @@
         <v>25</v>
       </c>
       <c r="D223" t="n">
-        <v>0.2177822177822178</v>
+        <v>0.1498501498501499</v>
       </c>
       <c r="E223" t="n">
-        <v>0.7822177822177823</v>
+        <v>0.8501498501498501</v>
       </c>
       <c r="F223" t="n">
-        <v>11.953125</v>
+        <v>24.015625</v>
       </c>
     </row>
     <row r="224">
@@ -5350,13 +5350,13 @@
         <v>25</v>
       </c>
       <c r="D224" t="n">
-        <v>0.2197802197802198</v>
+        <v>0.1578421578421579</v>
       </c>
       <c r="E224" t="n">
-        <v>0.7802197802197802</v>
+        <v>0.8421578421578422</v>
       </c>
       <c r="F224" t="n">
-        <v>12.125</v>
+        <v>24.40625</v>
       </c>
     </row>
     <row r="225">
@@ -5372,13 +5372,13 @@
         <v>25</v>
       </c>
       <c r="D225" t="n">
-        <v>0.2257742257742258</v>
+        <v>0.1508491508491508</v>
       </c>
       <c r="E225" t="n">
-        <v>0.7742257742257742</v>
+        <v>0.8491508491508492</v>
       </c>
       <c r="F225" t="n">
-        <v>11.828125</v>
+        <v>23.78125</v>
       </c>
     </row>
     <row r="226">
@@ -5394,13 +5394,13 @@
         <v>25</v>
       </c>
       <c r="D226" t="n">
-        <v>0.1958041958041958</v>
+        <v>0.1878121878121878</v>
       </c>
       <c r="E226" t="n">
-        <v>0.8041958041958042</v>
+        <v>0.8121878121878122</v>
       </c>
       <c r="F226" t="n">
-        <v>11.40625</v>
+        <v>23.703125</v>
       </c>
     </row>
     <row r="227">
@@ -5416,13 +5416,13 @@
         <v>25</v>
       </c>
       <c r="D227" t="n">
-        <v>0.01598401598401598</v>
+        <v>0.01698301698301698</v>
       </c>
       <c r="E227" t="n">
-        <v>0.984015984015984</v>
+        <v>0.983016983016983</v>
       </c>
       <c r="F227" t="n">
-        <v>12.6875</v>
+        <v>25.78125</v>
       </c>
     </row>
     <row r="228">
@@ -5438,13 +5438,13 @@
         <v>25</v>
       </c>
       <c r="D228" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.01598401598401598</v>
       </c>
       <c r="E228" t="n">
-        <v>0.987012987012987</v>
+        <v>0.984015984015984</v>
       </c>
       <c r="F228" t="n">
-        <v>12.9375</v>
+        <v>25.609375</v>
       </c>
     </row>
     <row r="229">
@@ -5460,13 +5460,13 @@
         <v>25</v>
       </c>
       <c r="D229" t="n">
-        <v>0.01598401598401598</v>
+        <v>0.00999000999000999</v>
       </c>
       <c r="E229" t="n">
-        <v>0.984015984015984</v>
+        <v>0.99000999000999</v>
       </c>
       <c r="F229" t="n">
-        <v>12.8125</v>
+        <v>25.65625</v>
       </c>
     </row>
     <row r="230">
@@ -5482,13 +5482,13 @@
         <v>25</v>
       </c>
       <c r="D230" t="n">
-        <v>0.01998001998001998</v>
+        <v>0.008991008991008992</v>
       </c>
       <c r="E230" t="n">
-        <v>0.98001998001998</v>
+        <v>0.991008991008991</v>
       </c>
       <c r="F230" t="n">
-        <v>13.03125</v>
+        <v>25.65625</v>
       </c>
     </row>
     <row r="231">
@@ -5504,13 +5504,13 @@
         <v>25</v>
       </c>
       <c r="D231" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.01498501498501499</v>
       </c>
       <c r="E231" t="n">
-        <v>0.987012987012987</v>
+        <v>0.985014985014985</v>
       </c>
       <c r="F231" t="n">
-        <v>13.25</v>
+        <v>25.609375</v>
       </c>
     </row>
     <row r="232">
@@ -5526,13 +5526,13 @@
         <v>25</v>
       </c>
       <c r="D232" t="n">
-        <v>0.01798201798201798</v>
+        <v>0.01198801198801199</v>
       </c>
       <c r="E232" t="n">
-        <v>0.9820179820179821</v>
+        <v>0.988011988011988</v>
       </c>
       <c r="F232" t="n">
-        <v>12.625</v>
+        <v>25.78125</v>
       </c>
     </row>
     <row r="233">
@@ -5548,13 +5548,13 @@
         <v>25</v>
       </c>
       <c r="D233" t="n">
-        <v>0.01998001998001998</v>
+        <v>0.01798201798201798</v>
       </c>
       <c r="E233" t="n">
-        <v>0.98001998001998</v>
+        <v>0.9820179820179821</v>
       </c>
       <c r="F233" t="n">
-        <v>12.953125</v>
+        <v>25.84375</v>
       </c>
     </row>
     <row r="234">
@@ -5570,13 +5570,13 @@
         <v>25</v>
       </c>
       <c r="D234" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.02497502497502498</v>
       </c>
       <c r="E234" t="n">
-        <v>0.987012987012987</v>
+        <v>0.975024975024975</v>
       </c>
       <c r="F234" t="n">
-        <v>12.90625</v>
+        <v>26.0625</v>
       </c>
     </row>
     <row r="235">
@@ -5592,13 +5592,13 @@
         <v>25</v>
       </c>
       <c r="D235" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.01998001998001998</v>
       </c>
       <c r="E235" t="n">
-        <v>0.988011988011988</v>
+        <v>0.98001998001998</v>
       </c>
       <c r="F235" t="n">
-        <v>13.03125</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="236">
@@ -5614,13 +5614,13 @@
         <v>25</v>
       </c>
       <c r="D236" t="n">
-        <v>0.01398601398601399</v>
+        <v>0.01798201798201798</v>
       </c>
       <c r="E236" t="n">
-        <v>0.986013986013986</v>
+        <v>0.9820179820179821</v>
       </c>
       <c r="F236" t="n">
-        <v>12.921875</v>
+        <v>25.78125</v>
       </c>
     </row>
     <row r="237">
@@ -5636,13 +5636,13 @@
         <v>25</v>
       </c>
       <c r="D237" t="n">
-        <v>0.005994005994005994</v>
+        <v>0.01698301698301698</v>
       </c>
       <c r="E237" t="n">
-        <v>0.994005994005994</v>
+        <v>0.983016983016983</v>
       </c>
       <c r="F237" t="n">
-        <v>12.703125</v>
+        <v>25.546875</v>
       </c>
     </row>
     <row r="238">
@@ -5658,13 +5658,13 @@
         <v>25</v>
       </c>
       <c r="D238" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="E238" t="n">
-        <v>0.99000999000999</v>
+        <v>0.993006993006993</v>
       </c>
       <c r="F238" t="n">
-        <v>12.96875</v>
+        <v>25.546875</v>
       </c>
     </row>
     <row r="239">
@@ -5680,13 +5680,13 @@
         <v>25</v>
       </c>
       <c r="D239" t="n">
-        <v>0.02197802197802198</v>
+        <v>0.01698301698301698</v>
       </c>
       <c r="E239" t="n">
-        <v>0.978021978021978</v>
+        <v>0.983016983016983</v>
       </c>
       <c r="F239" t="n">
-        <v>12.78125</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="240">
@@ -5702,13 +5702,13 @@
         <v>25</v>
       </c>
       <c r="D240" t="n">
-        <v>0.01698301698301698</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="E240" t="n">
-        <v>0.983016983016983</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="F240" t="n">
-        <v>13.328125</v>
+        <v>25.609375</v>
       </c>
     </row>
     <row r="241">
@@ -5724,13 +5724,13 @@
         <v>25</v>
       </c>
       <c r="D241" t="n">
-        <v>0.01598401598401598</v>
+        <v>0.01498501498501499</v>
       </c>
       <c r="E241" t="n">
-        <v>0.984015984015984</v>
+        <v>0.985014985014985</v>
       </c>
       <c r="F241" t="n">
-        <v>12.84375</v>
+        <v>25.4375</v>
       </c>
     </row>
     <row r="242">
@@ -5752,7 +5752,7 @@
         <v>0.986013986013986</v>
       </c>
       <c r="F242" t="n">
-        <v>12.703125</v>
+        <v>25.53125</v>
       </c>
     </row>
     <row r="243">
@@ -5768,13 +5768,13 @@
         <v>25</v>
       </c>
       <c r="D243" t="n">
-        <v>0.006993006993006993</v>
+        <v>0.01598401598401598</v>
       </c>
       <c r="E243" t="n">
-        <v>0.993006993006993</v>
+        <v>0.984015984015984</v>
       </c>
       <c r="F243" t="n">
-        <v>12.984375</v>
+        <v>25.640625</v>
       </c>
     </row>
     <row r="244">
@@ -5790,13 +5790,13 @@
         <v>25</v>
       </c>
       <c r="D244" t="n">
-        <v>0.01898101898101898</v>
+        <v>0.01698301698301698</v>
       </c>
       <c r="E244" t="n">
-        <v>0.981018981018981</v>
+        <v>0.983016983016983</v>
       </c>
       <c r="F244" t="n">
-        <v>12.71875</v>
+        <v>26.015625</v>
       </c>
     </row>
     <row r="245">
@@ -5812,13 +5812,13 @@
         <v>25</v>
       </c>
       <c r="D245" t="n">
-        <v>0.01598401598401598</v>
+        <v>0.01198801198801199</v>
       </c>
       <c r="E245" t="n">
-        <v>0.984015984015984</v>
+        <v>0.988011988011988</v>
       </c>
       <c r="F245" t="n">
-        <v>12.671875</v>
+        <v>25.34375</v>
       </c>
     </row>
     <row r="246">
@@ -5834,13 +5834,13 @@
         <v>25</v>
       </c>
       <c r="D246" t="n">
-        <v>0.003996003996003996</v>
+        <v>0.008991008991008992</v>
       </c>
       <c r="E246" t="n">
-        <v>0.996003996003996</v>
+        <v>0.991008991008991</v>
       </c>
       <c r="F246" t="n">
-        <v>12.828125</v>
+        <v>25.265625</v>
       </c>
     </row>
     <row r="247">
@@ -5856,13 +5856,13 @@
         <v>25</v>
       </c>
       <c r="D247" t="n">
-        <v>0.01598401598401598</v>
+        <v>0.01798201798201798</v>
       </c>
       <c r="E247" t="n">
-        <v>0.984015984015984</v>
+        <v>0.9820179820179821</v>
       </c>
       <c r="F247" t="n">
-        <v>12.703125</v>
+        <v>25.234375</v>
       </c>
     </row>
     <row r="248">
@@ -5878,13 +5878,13 @@
         <v>25</v>
       </c>
       <c r="D248" t="n">
-        <v>0.007992007992007992</v>
+        <v>0.01498501498501499</v>
       </c>
       <c r="E248" t="n">
-        <v>0.9920079920079921</v>
+        <v>0.985014985014985</v>
       </c>
       <c r="F248" t="n">
-        <v>12.5625</v>
+        <v>25.078125</v>
       </c>
     </row>
     <row r="249">
@@ -5900,13 +5900,13 @@
         <v>25</v>
       </c>
       <c r="D249" t="n">
-        <v>0.01598401598401598</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="E249" t="n">
-        <v>0.984015984015984</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="F249" t="n">
-        <v>12.546875</v>
+        <v>24.59375</v>
       </c>
     </row>
     <row r="250">
@@ -5922,13 +5922,13 @@
         <v>25</v>
       </c>
       <c r="D250" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="E250" t="n">
-        <v>0.987012987012987</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="F250" t="n">
-        <v>12.03125</v>
+        <v>23.9375</v>
       </c>
     </row>
     <row r="251">
@@ -5944,13 +5944,13 @@
         <v>25</v>
       </c>
       <c r="D251" t="n">
-        <v>0.008991008991008992</v>
+        <v>0.01198801198801199</v>
       </c>
       <c r="E251" t="n">
-        <v>0.991008991008991</v>
+        <v>0.988011988011988</v>
       </c>
       <c r="F251" t="n">
-        <v>12.171875</v>
+        <v>23.84375</v>
       </c>
     </row>
   </sheetData>
